--- a/mp2-2_skeleton/TestCasesMP2.2.xlsx
+++ b/mp2-2_skeleton/TestCasesMP2.2.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/n1v3x/TAMU/spring-2025/csce-438/mp/mp2-2_skeleton/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3F9489-0B8B-634E-A376-4AA4A4470238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20480" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="test1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="test1_output" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="test2" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="test2_output" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="test3" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="test3_output" sheetId="6" r:id="rId9"/>
+    <sheet name="test1" sheetId="1" r:id="rId1"/>
+    <sheet name="test1_output" sheetId="2" r:id="rId2"/>
+    <sheet name="test2" sheetId="3" r:id="rId3"/>
+    <sheet name="test2_output" sheetId="4" r:id="rId4"/>
+    <sheet name="test3" sheetId="5" r:id="rId5"/>
+    <sheet name="test3_output" sheetId="6" r:id="rId6"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -100,18 +109,18 @@
   <si>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri, Arial"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve">Cmd&gt; </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri, Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="12.0"/>
       </rPr>
       <t>list</t>
     </r>
@@ -119,18 +128,18 @@
   <si>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri, Arial"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve">Cmd&gt; </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri, Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="12.0"/>
       </rPr>
       <t>list</t>
     </r>
@@ -147,18 +156,20 @@
   <si>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Cmd&gt; </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <family val="2"/>
       </rPr>
       <t>follow 4</t>
     </r>
@@ -166,18 +177,20 @@
   <si>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Cmd&gt; </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <family val="2"/>
       </rPr>
       <t>follow 1</t>
     </r>
@@ -185,18 +198,18 @@
   <si>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri, Arial"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve">Cmd&gt; </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri, Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="12.0"/>
       </rPr>
       <t>list</t>
     </r>
@@ -204,18 +217,18 @@
   <si>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri, Arial"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve">Cmd&gt; </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri, Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="12.0"/>
       </rPr>
       <t>list</t>
     </r>
@@ -229,18 +242,20 @@
   <si>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Cmd&gt; </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <family val="2"/>
       </rPr>
       <t>timeline</t>
     </r>
@@ -248,18 +263,20 @@
   <si>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Cmd&gt; </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <family val="2"/>
       </rPr>
       <t>timeline</t>
     </r>
@@ -344,18 +361,18 @@
   <si>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri, Arial"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve">Cmd&gt; </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri, Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="12.0"/>
       </rPr>
       <t>list</t>
     </r>
@@ -363,18 +380,18 @@
   <si>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri, Arial"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve">Cmd&gt; </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri, Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="12.0"/>
       </rPr>
       <t>list</t>
     </r>
@@ -382,18 +399,18 @@
   <si>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri, Arial"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve">Cmd&gt; </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri, Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="12.0"/>
       </rPr>
       <t>list</t>
     </r>
@@ -404,18 +421,20 @@
   <si>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Cmd&gt; </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <family val="2"/>
       </rPr>
       <t>follow 2</t>
     </r>
@@ -423,18 +442,20 @@
   <si>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Cmd&gt; </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <family val="2"/>
       </rPr>
       <t>follow 1</t>
     </r>
@@ -442,18 +463,20 @@
   <si>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Cmd&gt; </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <family val="2"/>
       </rPr>
       <t>follow 1</t>
     </r>
@@ -461,18 +484,20 @@
   <si>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Cmd&gt; </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <family val="2"/>
       </rPr>
       <t>follow 3</t>
     </r>
@@ -480,18 +505,20 @@
   <si>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Cmd&gt; </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <family val="2"/>
       </rPr>
       <t>follow 3</t>
     </r>
@@ -499,18 +526,20 @@
   <si>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Cmd&gt; </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <family val="2"/>
       </rPr>
       <t>follow 2</t>
     </r>
@@ -518,18 +547,18 @@
   <si>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri, Arial"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve">Cmd&gt; </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri, Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="12.0"/>
       </rPr>
       <t>list</t>
     </r>
@@ -537,18 +566,18 @@
   <si>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri, Arial"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve">Cmd&gt; </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri, Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="12.0"/>
       </rPr>
       <t>list</t>
     </r>
@@ -556,18 +585,18 @@
   <si>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri, Arial"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve">Cmd&gt; </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri, Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="12.0"/>
       </rPr>
       <t>list</t>
     </r>
@@ -584,18 +613,20 @@
   <si>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Cmd&gt; </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <family val="2"/>
       </rPr>
       <t>timeline</t>
     </r>
@@ -603,18 +634,20 @@
   <si>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Cmd&gt; </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <family val="2"/>
       </rPr>
       <t>timeline</t>
     </r>
@@ -622,18 +655,20 @@
   <si>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Cmd&gt; </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <family val="2"/>
       </rPr>
       <t>timeline</t>
     </r>
@@ -668,26 +703,6 @@
   </si>
   <si>
     <t>kill user 3 (Ctrl+C)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve">kill server with port 10001, i.e., Master in cluster 2 by using the command:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>pkill -f './tsd -c 2 -s 1'</t>
-    </r>
   </si>
   <si>
     <t>./tsc -h localhost -k 9000 -u 5</t>
@@ -725,18 +740,18 @@
   <si>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri, Arial"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve">Cmd&gt; </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri, Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="12.0"/>
       </rPr>
       <t>list</t>
     </r>
@@ -744,18 +759,18 @@
   <si>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri, Arial"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve">Cmd&gt; </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri, Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="12.0"/>
       </rPr>
       <t>list</t>
     </r>
@@ -763,18 +778,18 @@
   <si>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri, Arial"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve">Cmd&gt; </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri, Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="12.0"/>
       </rPr>
       <t>list</t>
     </r>
@@ -782,18 +797,20 @@
   <si>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Cmd&gt; </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <family val="2"/>
       </rPr>
       <t>follow 2</t>
     </r>
@@ -801,18 +818,20 @@
   <si>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Cmd&gt; </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <family val="2"/>
       </rPr>
       <t>follow 1</t>
     </r>
@@ -820,18 +839,20 @@
   <si>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Cmd&gt; </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <family val="2"/>
       </rPr>
       <t>follow 1</t>
     </r>
@@ -839,18 +860,20 @@
   <si>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Cmd&gt; </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <family val="2"/>
       </rPr>
       <t>follow 3</t>
     </r>
@@ -858,18 +881,20 @@
   <si>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Cmd&gt; </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <family val="2"/>
       </rPr>
       <t>follow 3</t>
     </r>
@@ -877,18 +902,20 @@
   <si>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Cmd&gt; </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <family val="2"/>
       </rPr>
       <t>follow 2</t>
     </r>
@@ -896,18 +923,18 @@
   <si>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri, Arial"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve">Cmd&gt; </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri, Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="12.0"/>
       </rPr>
       <t>list</t>
     </r>
@@ -915,18 +942,18 @@
   <si>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri, Arial"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve">Cmd&gt; </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri, Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="12.0"/>
       </rPr>
       <t>list</t>
     </r>
@@ -934,18 +961,18 @@
   <si>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri, Arial"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve">Cmd&gt; </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri, Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="12.0"/>
       </rPr>
       <t>list</t>
     </r>
@@ -953,18 +980,20 @@
   <si>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Cmd&gt; </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <family val="2"/>
       </rPr>
       <t>timeline</t>
     </r>
@@ -972,18 +1001,20 @@
   <si>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Cmd&gt; </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <family val="2"/>
       </rPr>
       <t>timeline</t>
     </r>
@@ -991,18 +1022,20 @@
   <si>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Cmd&gt; </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <family val="2"/>
       </rPr>
       <t>timeline</t>
     </r>
@@ -1013,18 +1046,20 @@
   <si>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Cmd&gt; </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <family val="2"/>
       </rPr>
       <t>follow 5</t>
     </r>
@@ -1032,18 +1067,20 @@
   <si>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Cmd&gt; </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <family val="2"/>
       </rPr>
       <t>follow 5</t>
     </r>
@@ -1051,18 +1088,20 @@
   <si>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Cmd&gt; </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <family val="2"/>
       </rPr>
       <t>follow 5</t>
     </r>
@@ -1070,18 +1109,18 @@
   <si>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri, Arial"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve">Cmd&gt; </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri, Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="12.0"/>
       </rPr>
       <t>list</t>
     </r>
@@ -1089,18 +1128,18 @@
   <si>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri, Arial"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve">Cmd&gt; </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri, Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="12.0"/>
       </rPr>
       <t>list</t>
     </r>
@@ -1108,18 +1147,18 @@
   <si>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri, Arial"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve">Cmd&gt; </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri, Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="12.0"/>
       </rPr>
       <t>list</t>
     </r>
@@ -1127,18 +1166,18 @@
   <si>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri, Arial"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve">Cmd&gt; </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri, Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="12.0"/>
       </rPr>
       <t>list</t>
     </r>
@@ -1149,18 +1188,20 @@
   <si>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Cmd&gt; </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <family val="2"/>
       </rPr>
       <t>follow 1</t>
     </r>
@@ -1177,18 +1218,20 @@
   <si>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Cmd&gt; </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <family val="2"/>
       </rPr>
       <t>timeline</t>
     </r>
@@ -1196,18 +1239,20 @@
   <si>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Cmd&gt; </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <family val="2"/>
       </rPr>
       <t>timeline</t>
     </r>
@@ -1215,18 +1260,20 @@
   <si>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Cmd&gt; </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <family val="2"/>
       </rPr>
       <t>timeline</t>
     </r>
@@ -1234,18 +1281,20 @@
   <si>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Cmd&gt; </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <family val="2"/>
       </rPr>
       <t>follow 2</t>
     </r>
@@ -1253,18 +1302,20 @@
   <si>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Cmd&gt; </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <family val="2"/>
       </rPr>
       <t>follow 3</t>
     </r>
@@ -1272,18 +1323,18 @@
   <si>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri, Arial"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve">Cmd&gt; </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri, Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="12.0"/>
       </rPr>
       <t>list</t>
     </r>
@@ -1300,18 +1351,20 @@
   <si>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Cmd&gt; </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <family val="2"/>
       </rPr>
       <t>timeline</t>
     </r>
@@ -1337,18 +1390,18 @@
   <si>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri, Arial"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve">Cmd&gt; </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Calibri, Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="12.0"/>
       </rPr>
       <t>list</t>
     </r>
@@ -1356,79 +1409,139 @@
   <si>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Cmd&gt; </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <family val="2"/>
       </rPr>
       <t>timeline</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">kill server with port 10001, i.e., Master in cluster 2 by using the command:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>pkill -f './tsd -c 2 -s 1'</t>
     </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="15">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri, Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri, Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1436,7 +1549,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1458,99 +1571,85 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+  <cellXfs count="20">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1740,28 +1839,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="125" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="19.75"/>
-    <col customWidth="1" min="2" max="2" width="39.13"/>
-    <col customWidth="1" min="3" max="3" width="28.63"/>
-    <col customWidth="1" min="4" max="4" width="27.88"/>
-    <col customWidth="1" min="5" max="5" width="6.13"/>
-    <col customWidth="1" min="6" max="6" width="62.75"/>
+    <col min="1" max="1" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="74.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" customWidth="1"/>
+    <col min="4" max="4" width="27.83203125" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" customWidth="1"/>
+    <col min="6" max="6" width="62.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1797,7 +1899,7 @@
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1827,7 +1929,7 @@
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
         <v>5</v>
@@ -1859,7 +1961,7 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
@@ -1889,7 +1991,7 @@
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1919,7 +2021,7 @@
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
@@ -1949,7 +2051,7 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1979,7 +2081,7 @@
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
@@ -2009,7 +2111,7 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -2039,7 +2141,7 @@
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
@@ -2069,7 +2171,7 @@
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2099,7 +2201,7 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
@@ -2129,7 +2231,7 @@
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
@@ -2159,7 +2261,7 @@
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
@@ -2189,7 +2291,7 @@
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2219,7 +2321,7 @@
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:26" ht="15.75" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2249,7 +2351,7 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:26" ht="15.75" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2279,7 +2381,7 @@
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:26" ht="15.75" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2307,7 +2409,7 @@
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:26" ht="15.75" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2335,7 +2437,7 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:26" ht="15.75" customHeight="1">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2363,7 +2465,7 @@
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:26" ht="15.75" customHeight="1">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2391,7 +2493,7 @@
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:26" ht="15.75" customHeight="1">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2419,7 +2521,7 @@
       <c r="Y22" s="3"/>
       <c r="Z22" s="3"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:26" ht="15.75" customHeight="1">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2447,7 +2549,7 @@
       <c r="Y23" s="3"/>
       <c r="Z23" s="3"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:26" ht="15.75" customHeight="1">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -2475,7 +2577,7 @@
       <c r="Y24" s="3"/>
       <c r="Z24" s="3"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:26" ht="15.75" customHeight="1">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -2503,7 +2605,7 @@
       <c r="Y25" s="3"/>
       <c r="Z25" s="3"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:26" ht="15.75" customHeight="1">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -2531,7 +2633,7 @@
       <c r="Y26" s="3"/>
       <c r="Z26" s="3"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:26" ht="15.75" customHeight="1">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -2559,7 +2661,7 @@
       <c r="Y27" s="3"/>
       <c r="Z27" s="3"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:26" ht="15.75" customHeight="1">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -2587,7 +2689,7 @@
       <c r="Y28" s="3"/>
       <c r="Z28" s="3"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:26" ht="15.75" customHeight="1">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -2615,7 +2717,7 @@
       <c r="Y29" s="3"/>
       <c r="Z29" s="3"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:26" ht="15.75" customHeight="1">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -2643,7 +2745,7 @@
       <c r="Y30" s="3"/>
       <c r="Z30" s="3"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:26" ht="15.75" customHeight="1">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -2671,7 +2773,7 @@
       <c r="Y31" s="3"/>
       <c r="Z31" s="3"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:26" ht="15.75" customHeight="1">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -2699,7 +2801,7 @@
       <c r="Y32" s="3"/>
       <c r="Z32" s="3"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:26" ht="15.75" customHeight="1">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -2727,7 +2829,7 @@
       <c r="Y33" s="3"/>
       <c r="Z33" s="3"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:26" ht="15.75" customHeight="1">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -2755,7 +2857,7 @@
       <c r="Y34" s="3"/>
       <c r="Z34" s="3"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:26" ht="15.75" customHeight="1">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -2783,7 +2885,7 @@
       <c r="Y35" s="3"/>
       <c r="Z35" s="3"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:26" ht="15.75" customHeight="1">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -2811,7 +2913,7 @@
       <c r="Y36" s="3"/>
       <c r="Z36" s="3"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:26" ht="15.75" customHeight="1">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -2839,7 +2941,7 @@
       <c r="Y37" s="3"/>
       <c r="Z37" s="3"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:26" ht="15.75" customHeight="1">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -2867,7 +2969,7 @@
       <c r="Y38" s="3"/>
       <c r="Z38" s="3"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:26" ht="15.75" customHeight="1">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -2895,7 +2997,7 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:26" ht="15.75" customHeight="1">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -2923,7 +3025,7 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:26" ht="15.75" customHeight="1">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -2951,7 +3053,7 @@
       <c r="Y41" s="3"/>
       <c r="Z41" s="3"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:26" ht="15.75" customHeight="1">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -2979,7 +3081,7 @@
       <c r="Y42" s="3"/>
       <c r="Z42" s="3"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:26" ht="15.75" customHeight="1">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -3007,7 +3109,7 @@
       <c r="Y43" s="3"/>
       <c r="Z43" s="3"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:26" ht="15.75" customHeight="1">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -3035,7 +3137,7 @@
       <c r="Y44" s="3"/>
       <c r="Z44" s="3"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:26" ht="15.75" customHeight="1">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -3063,7 +3165,7 @@
       <c r="Y45" s="3"/>
       <c r="Z45" s="3"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:26" ht="15.75" customHeight="1">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -3091,7 +3193,7 @@
       <c r="Y46" s="3"/>
       <c r="Z46" s="3"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:26" ht="15.75" customHeight="1">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -3119,7 +3221,7 @@
       <c r="Y47" s="3"/>
       <c r="Z47" s="3"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:26" ht="15.75" customHeight="1">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -3147,7 +3249,7 @@
       <c r="Y48" s="3"/>
       <c r="Z48" s="3"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:26" ht="15.75" customHeight="1">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -3175,7 +3277,7 @@
       <c r="Y49" s="3"/>
       <c r="Z49" s="3"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:26" ht="15.75" customHeight="1">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -3203,7 +3305,7 @@
       <c r="Y50" s="3"/>
       <c r="Z50" s="3"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:26" ht="15.75" customHeight="1">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -3231,7 +3333,7 @@
       <c r="Y51" s="3"/>
       <c r="Z51" s="3"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:26" ht="15.75" customHeight="1">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -3259,7 +3361,7 @@
       <c r="Y52" s="3"/>
       <c r="Z52" s="3"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:26" ht="15.75" customHeight="1">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -3287,7 +3389,7 @@
       <c r="Y53" s="3"/>
       <c r="Z53" s="3"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:26" ht="15.75" customHeight="1">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -3315,7 +3417,7 @@
       <c r="Y54" s="3"/>
       <c r="Z54" s="3"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:26" ht="15.75" customHeight="1">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -3343,7 +3445,7 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:26" ht="15.75" customHeight="1">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -3371,7 +3473,7 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:26" ht="15.75" customHeight="1">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -3399,7 +3501,7 @@
       <c r="Y57" s="3"/>
       <c r="Z57" s="3"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:26" ht="15.75" customHeight="1">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -3427,7 +3529,7 @@
       <c r="Y58" s="3"/>
       <c r="Z58" s="3"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:26" ht="15.75" customHeight="1">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -3455,7 +3557,7 @@
       <c r="Y59" s="3"/>
       <c r="Z59" s="3"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:26" ht="15.75" customHeight="1">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -3483,7 +3585,7 @@
       <c r="Y60" s="3"/>
       <c r="Z60" s="3"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:26" ht="15.75" customHeight="1">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -3511,7 +3613,7 @@
       <c r="Y61" s="3"/>
       <c r="Z61" s="3"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:26" ht="15.75" customHeight="1">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -3539,7 +3641,7 @@
       <c r="Y62" s="3"/>
       <c r="Z62" s="3"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:26" ht="15.75" customHeight="1">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -3567,7 +3669,7 @@
       <c r="Y63" s="3"/>
       <c r="Z63" s="3"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:26" ht="15.75" customHeight="1">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -3595,7 +3697,7 @@
       <c r="Y64" s="3"/>
       <c r="Z64" s="3"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:26" ht="15.75" customHeight="1">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -3623,7 +3725,7 @@
       <c r="Y65" s="3"/>
       <c r="Z65" s="3"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:26" ht="15.75" customHeight="1">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -3651,7 +3753,7 @@
       <c r="Y66" s="3"/>
       <c r="Z66" s="3"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:26" ht="15.75" customHeight="1">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -3679,7 +3781,7 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:26" ht="15.75" customHeight="1">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -3707,7 +3809,7 @@
       <c r="Y68" s="3"/>
       <c r="Z68" s="3"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:26" ht="15.75" customHeight="1">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -3735,7 +3837,7 @@
       <c r="Y69" s="3"/>
       <c r="Z69" s="3"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:26" ht="15.75" customHeight="1">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -3763,7 +3865,7 @@
       <c r="Y70" s="3"/>
       <c r="Z70" s="3"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:26" ht="15.75" customHeight="1">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -3791,7 +3893,7 @@
       <c r="Y71" s="3"/>
       <c r="Z71" s="3"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:26" ht="15.75" customHeight="1">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -3819,7 +3921,7 @@
       <c r="Y72" s="3"/>
       <c r="Z72" s="3"/>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:26" ht="15.75" customHeight="1">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -3847,7 +3949,7 @@
       <c r="Y73" s="3"/>
       <c r="Z73" s="3"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:26" ht="15.75" customHeight="1">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -3875,7 +3977,7 @@
       <c r="Y74" s="3"/>
       <c r="Z74" s="3"/>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:26" ht="15.75" customHeight="1">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -3903,7 +4005,7 @@
       <c r="Y75" s="3"/>
       <c r="Z75" s="3"/>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:26" ht="15.75" customHeight="1">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -3931,7 +4033,7 @@
       <c r="Y76" s="3"/>
       <c r="Z76" s="3"/>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:26" ht="15.75" customHeight="1">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -3959,7 +4061,7 @@
       <c r="Y77" s="3"/>
       <c r="Z77" s="3"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:26" ht="15.75" customHeight="1">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -3987,7 +4089,7 @@
       <c r="Y78" s="3"/>
       <c r="Z78" s="3"/>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:26" ht="15.75" customHeight="1">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -4015,7 +4117,7 @@
       <c r="Y79" s="3"/>
       <c r="Z79" s="3"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:26" ht="15.75" customHeight="1">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -4043,7 +4145,7 @@
       <c r="Y80" s="3"/>
       <c r="Z80" s="3"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:26" ht="15.75" customHeight="1">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -4071,7 +4173,7 @@
       <c r="Y81" s="3"/>
       <c r="Z81" s="3"/>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:26" ht="15.75" customHeight="1">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -4099,7 +4201,7 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:26" ht="15.75" customHeight="1">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -4127,7 +4229,7 @@
       <c r="Y83" s="3"/>
       <c r="Z83" s="3"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:26" ht="15.75" customHeight="1">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -4155,7 +4257,7 @@
       <c r="Y84" s="3"/>
       <c r="Z84" s="3"/>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:26" ht="15.75" customHeight="1">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -4183,7 +4285,7 @@
       <c r="Y85" s="3"/>
       <c r="Z85" s="3"/>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="1:26" ht="15.75" customHeight="1">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -4211,7 +4313,7 @@
       <c r="Y86" s="3"/>
       <c r="Z86" s="3"/>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="1:26" ht="15.75" customHeight="1">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -4239,7 +4341,7 @@
       <c r="Y87" s="3"/>
       <c r="Z87" s="3"/>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="1:26" ht="15.75" customHeight="1">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -4267,7 +4369,7 @@
       <c r="Y88" s="3"/>
       <c r="Z88" s="3"/>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:26" ht="15.75" customHeight="1">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -4295,7 +4397,7 @@
       <c r="Y89" s="3"/>
       <c r="Z89" s="3"/>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:26" ht="15.75" customHeight="1">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -4323,7 +4425,7 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="1:26" ht="15.75" customHeight="1">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -4351,7 +4453,7 @@
       <c r="Y91" s="3"/>
       <c r="Z91" s="3"/>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="1:26" ht="15.75" customHeight="1">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -4379,7 +4481,7 @@
       <c r="Y92" s="3"/>
       <c r="Z92" s="3"/>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="1:26" ht="15.75" customHeight="1">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -4407,7 +4509,7 @@
       <c r="Y93" s="3"/>
       <c r="Z93" s="3"/>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="1:26" ht="15.75" customHeight="1">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -4435,7 +4537,7 @@
       <c r="Y94" s="3"/>
       <c r="Z94" s="3"/>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="1:26" ht="15.75" customHeight="1">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -4463,7 +4565,7 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="1:26" ht="15.75" customHeight="1">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -4491,7 +4593,7 @@
       <c r="Y96" s="3"/>
       <c r="Z96" s="3"/>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="1:26" ht="15.75" customHeight="1">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -4519,7 +4621,7 @@
       <c r="Y97" s="3"/>
       <c r="Z97" s="3"/>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="1:26" ht="15.75" customHeight="1">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -4547,7 +4649,7 @@
       <c r="Y98" s="3"/>
       <c r="Z98" s="3"/>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="1:26" ht="15.75" customHeight="1">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -4575,7 +4677,7 @@
       <c r="Y99" s="3"/>
       <c r="Z99" s="3"/>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="1:26" ht="15.75" customHeight="1">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -4603,7 +4705,7 @@
       <c r="Y100" s="3"/>
       <c r="Z100" s="3"/>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="1:26" ht="15.75" customHeight="1">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -4631,7 +4733,7 @@
       <c r="Y101" s="3"/>
       <c r="Z101" s="3"/>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="1:26" ht="15.75" customHeight="1">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -4659,7 +4761,7 @@
       <c r="Y102" s="3"/>
       <c r="Z102" s="3"/>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="1:26" ht="15.75" customHeight="1">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -4687,7 +4789,7 @@
       <c r="Y103" s="3"/>
       <c r="Z103" s="3"/>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="1:26" ht="15.75" customHeight="1">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -4715,7 +4817,7 @@
       <c r="Y104" s="3"/>
       <c r="Z104" s="3"/>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="1:26" ht="15.75" customHeight="1">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -4743,7 +4845,7 @@
       <c r="Y105" s="3"/>
       <c r="Z105" s="3"/>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="1:26" ht="15.75" customHeight="1">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -4771,7 +4873,7 @@
       <c r="Y106" s="3"/>
       <c r="Z106" s="3"/>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="1:26" ht="15.75" customHeight="1">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -4799,7 +4901,7 @@
       <c r="Y107" s="3"/>
       <c r="Z107" s="3"/>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="1:26" ht="15.75" customHeight="1">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -4827,7 +4929,7 @@
       <c r="Y108" s="3"/>
       <c r="Z108" s="3"/>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="1:26" ht="15.75" customHeight="1">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -4855,7 +4957,7 @@
       <c r="Y109" s="3"/>
       <c r="Z109" s="3"/>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="1:26" ht="15.75" customHeight="1">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -4883,7 +4985,7 @@
       <c r="Y110" s="3"/>
       <c r="Z110" s="3"/>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="1:26" ht="15.75" customHeight="1">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -4911,7 +5013,7 @@
       <c r="Y111" s="3"/>
       <c r="Z111" s="3"/>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="1:26" ht="15.75" customHeight="1">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -4939,7 +5041,7 @@
       <c r="Y112" s="3"/>
       <c r="Z112" s="3"/>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="1:26" ht="15.75" customHeight="1">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -4967,7 +5069,7 @@
       <c r="Y113" s="3"/>
       <c r="Z113" s="3"/>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="1:26" ht="15.75" customHeight="1">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -4995,7 +5097,7 @@
       <c r="Y114" s="3"/>
       <c r="Z114" s="3"/>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="1:26" ht="15.75" customHeight="1">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -5023,7 +5125,7 @@
       <c r="Y115" s="3"/>
       <c r="Z115" s="3"/>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="1:26" ht="15.75" customHeight="1">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -5051,7 +5153,7 @@
       <c r="Y116" s="3"/>
       <c r="Z116" s="3"/>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="1:26" ht="15.75" customHeight="1">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -5079,7 +5181,7 @@
       <c r="Y117" s="3"/>
       <c r="Z117" s="3"/>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="1:26" ht="15.75" customHeight="1">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -5107,7 +5209,7 @@
       <c r="Y118" s="3"/>
       <c r="Z118" s="3"/>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="1:26" ht="15.75" customHeight="1">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -5135,7 +5237,7 @@
       <c r="Y119" s="3"/>
       <c r="Z119" s="3"/>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="1:26" ht="15.75" customHeight="1">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -5163,7 +5265,7 @@
       <c r="Y120" s="3"/>
       <c r="Z120" s="3"/>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="1:26" ht="15.75" customHeight="1">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -5191,7 +5293,7 @@
       <c r="Y121" s="3"/>
       <c r="Z121" s="3"/>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="1:26" ht="15.75" customHeight="1">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -5219,7 +5321,7 @@
       <c r="Y122" s="3"/>
       <c r="Z122" s="3"/>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="1:26" ht="15.75" customHeight="1">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -5247,7 +5349,7 @@
       <c r="Y123" s="3"/>
       <c r="Z123" s="3"/>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="1:26" ht="15.75" customHeight="1">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -5275,7 +5377,7 @@
       <c r="Y124" s="3"/>
       <c r="Z124" s="3"/>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="1:26" ht="15.75" customHeight="1">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -5303,7 +5405,7 @@
       <c r="Y125" s="3"/>
       <c r="Z125" s="3"/>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="1:26" ht="15.75" customHeight="1">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -5331,7 +5433,7 @@
       <c r="Y126" s="3"/>
       <c r="Z126" s="3"/>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="1:26" ht="15.75" customHeight="1">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -5359,7 +5461,7 @@
       <c r="Y127" s="3"/>
       <c r="Z127" s="3"/>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="1:26" ht="15.75" customHeight="1">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -5387,7 +5489,7 @@
       <c r="Y128" s="3"/>
       <c r="Z128" s="3"/>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="1:26" ht="15.75" customHeight="1">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -5415,7 +5517,7 @@
       <c r="Y129" s="3"/>
       <c r="Z129" s="3"/>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="1:26" ht="15.75" customHeight="1">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -5443,7 +5545,7 @@
       <c r="Y130" s="3"/>
       <c r="Z130" s="3"/>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="1:26" ht="15.75" customHeight="1">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -5471,7 +5573,7 @@
       <c r="Y131" s="3"/>
       <c r="Z131" s="3"/>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="1:26" ht="15.75" customHeight="1">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -5499,7 +5601,7 @@
       <c r="Y132" s="3"/>
       <c r="Z132" s="3"/>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="1:26" ht="15.75" customHeight="1">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -5527,7 +5629,7 @@
       <c r="Y133" s="3"/>
       <c r="Z133" s="3"/>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="1:26" ht="15.75" customHeight="1">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -5555,7 +5657,7 @@
       <c r="Y134" s="3"/>
       <c r="Z134" s="3"/>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="1:26" ht="15.75" customHeight="1">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -5583,7 +5685,7 @@
       <c r="Y135" s="3"/>
       <c r="Z135" s="3"/>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="1:26" ht="15.75" customHeight="1">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -5611,7 +5713,7 @@
       <c r="Y136" s="3"/>
       <c r="Z136" s="3"/>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="1:26" ht="15.75" customHeight="1">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -5639,7 +5741,7 @@
       <c r="Y137" s="3"/>
       <c r="Z137" s="3"/>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="1:26" ht="15.75" customHeight="1">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -5667,7 +5769,7 @@
       <c r="Y138" s="3"/>
       <c r="Z138" s="3"/>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="1:26" ht="15.75" customHeight="1">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -5695,7 +5797,7 @@
       <c r="Y139" s="3"/>
       <c r="Z139" s="3"/>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="1:26" ht="15.75" customHeight="1">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -5723,7 +5825,7 @@
       <c r="Y140" s="3"/>
       <c r="Z140" s="3"/>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="1:26" ht="15.75" customHeight="1">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -5751,7 +5853,7 @@
       <c r="Y141" s="3"/>
       <c r="Z141" s="3"/>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="1:26" ht="15.75" customHeight="1">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -5779,7 +5881,7 @@
       <c r="Y142" s="3"/>
       <c r="Z142" s="3"/>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="1:26" ht="15.75" customHeight="1">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -5807,7 +5909,7 @@
       <c r="Y143" s="3"/>
       <c r="Z143" s="3"/>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="1:26" ht="15.75" customHeight="1">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -5835,7 +5937,7 @@
       <c r="Y144" s="3"/>
       <c r="Z144" s="3"/>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="1:26" ht="15.75" customHeight="1">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -5863,7 +5965,7 @@
       <c r="Y145" s="3"/>
       <c r="Z145" s="3"/>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="1:26" ht="15.75" customHeight="1">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -5891,7 +5993,7 @@
       <c r="Y146" s="3"/>
       <c r="Z146" s="3"/>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="1:26" ht="15.75" customHeight="1">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -5919,7 +6021,7 @@
       <c r="Y147" s="3"/>
       <c r="Z147" s="3"/>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="1:26" ht="15.75" customHeight="1">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -5947,7 +6049,7 @@
       <c r="Y148" s="3"/>
       <c r="Z148" s="3"/>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="1:26" ht="15.75" customHeight="1">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -5975,7 +6077,7 @@
       <c r="Y149" s="3"/>
       <c r="Z149" s="3"/>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="1:26" ht="15.75" customHeight="1">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -6003,7 +6105,7 @@
       <c r="Y150" s="3"/>
       <c r="Z150" s="3"/>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="1:26" ht="15.75" customHeight="1">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -6031,7 +6133,7 @@
       <c r="Y151" s="3"/>
       <c r="Z151" s="3"/>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="1:26" ht="15.75" customHeight="1">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -6059,7 +6161,7 @@
       <c r="Y152" s="3"/>
       <c r="Z152" s="3"/>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="1:26" ht="15.75" customHeight="1">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -6087,7 +6189,7 @@
       <c r="Y153" s="3"/>
       <c r="Z153" s="3"/>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="1:26" ht="15.75" customHeight="1">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -6115,7 +6217,7 @@
       <c r="Y154" s="3"/>
       <c r="Z154" s="3"/>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="1:26" ht="15.75" customHeight="1">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -6143,7 +6245,7 @@
       <c r="Y155" s="3"/>
       <c r="Z155" s="3"/>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="1:26" ht="15.75" customHeight="1">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -6171,7 +6273,7 @@
       <c r="Y156" s="3"/>
       <c r="Z156" s="3"/>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="1:26" ht="15.75" customHeight="1">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -6199,7 +6301,7 @@
       <c r="Y157" s="3"/>
       <c r="Z157" s="3"/>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="1:26" ht="15.75" customHeight="1">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -6227,7 +6329,7 @@
       <c r="Y158" s="3"/>
       <c r="Z158" s="3"/>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="1:26" ht="15.75" customHeight="1">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -6255,7 +6357,7 @@
       <c r="Y159" s="3"/>
       <c r="Z159" s="3"/>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="1:26" ht="15.75" customHeight="1">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -6283,7 +6385,7 @@
       <c r="Y160" s="3"/>
       <c r="Z160" s="3"/>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="1:26" ht="15.75" customHeight="1">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -6311,7 +6413,7 @@
       <c r="Y161" s="3"/>
       <c r="Z161" s="3"/>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="1:26" ht="15.75" customHeight="1">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -6339,7 +6441,7 @@
       <c r="Y162" s="3"/>
       <c r="Z162" s="3"/>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="1:26" ht="15.75" customHeight="1">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -6367,7 +6469,7 @@
       <c r="Y163" s="3"/>
       <c r="Z163" s="3"/>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="1:26" ht="15.75" customHeight="1">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -6395,7 +6497,7 @@
       <c r="Y164" s="3"/>
       <c r="Z164" s="3"/>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="1:26" ht="15.75" customHeight="1">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -6423,7 +6525,7 @@
       <c r="Y165" s="3"/>
       <c r="Z165" s="3"/>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="1:26" ht="15.75" customHeight="1">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -6451,7 +6553,7 @@
       <c r="Y166" s="3"/>
       <c r="Z166" s="3"/>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="1:26" ht="15.75" customHeight="1">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -6479,7 +6581,7 @@
       <c r="Y167" s="3"/>
       <c r="Z167" s="3"/>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="1:26" ht="15.75" customHeight="1">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -6507,7 +6609,7 @@
       <c r="Y168" s="3"/>
       <c r="Z168" s="3"/>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="1:26" ht="15.75" customHeight="1">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -6535,7 +6637,7 @@
       <c r="Y169" s="3"/>
       <c r="Z169" s="3"/>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="1:26" ht="15.75" customHeight="1">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -6563,7 +6665,7 @@
       <c r="Y170" s="3"/>
       <c r="Z170" s="3"/>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="1:26" ht="15.75" customHeight="1">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
@@ -6591,7 +6693,7 @@
       <c r="Y171" s="3"/>
       <c r="Z171" s="3"/>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="1:26" ht="15.75" customHeight="1">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -6619,7 +6721,7 @@
       <c r="Y172" s="3"/>
       <c r="Z172" s="3"/>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="1:26" ht="15.75" customHeight="1">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -6647,7 +6749,7 @@
       <c r="Y173" s="3"/>
       <c r="Z173" s="3"/>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="1:26" ht="15.75" customHeight="1">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
@@ -6675,7 +6777,7 @@
       <c r="Y174" s="3"/>
       <c r="Z174" s="3"/>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="1:26" ht="15.75" customHeight="1">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
@@ -6703,7 +6805,7 @@
       <c r="Y175" s="3"/>
       <c r="Z175" s="3"/>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="1:26" ht="15.75" customHeight="1">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
@@ -6731,7 +6833,7 @@
       <c r="Y176" s="3"/>
       <c r="Z176" s="3"/>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="1:26" ht="15.75" customHeight="1">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
@@ -6759,7 +6861,7 @@
       <c r="Y177" s="3"/>
       <c r="Z177" s="3"/>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="1:26" ht="15.75" customHeight="1">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
@@ -6787,7 +6889,7 @@
       <c r="Y178" s="3"/>
       <c r="Z178" s="3"/>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="1:26" ht="15.75" customHeight="1">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
@@ -6815,7 +6917,7 @@
       <c r="Y179" s="3"/>
       <c r="Z179" s="3"/>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" spans="1:26" ht="15.75" customHeight="1">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
@@ -6843,7 +6945,7 @@
       <c r="Y180" s="3"/>
       <c r="Z180" s="3"/>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="1:26" ht="15.75" customHeight="1">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
@@ -6871,7 +6973,7 @@
       <c r="Y181" s="3"/>
       <c r="Z181" s="3"/>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="1:26" ht="15.75" customHeight="1">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
@@ -6899,7 +7001,7 @@
       <c r="Y182" s="3"/>
       <c r="Z182" s="3"/>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" spans="1:26" ht="15.75" customHeight="1">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
@@ -6927,7 +7029,7 @@
       <c r="Y183" s="3"/>
       <c r="Z183" s="3"/>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="1:26" ht="15.75" customHeight="1">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
@@ -6955,7 +7057,7 @@
       <c r="Y184" s="3"/>
       <c r="Z184" s="3"/>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="1:26" ht="15.75" customHeight="1">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
@@ -6983,7 +7085,7 @@
       <c r="Y185" s="3"/>
       <c r="Z185" s="3"/>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="1:26" ht="15.75" customHeight="1">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
@@ -7011,7 +7113,7 @@
       <c r="Y186" s="3"/>
       <c r="Z186" s="3"/>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" spans="1:26" ht="15.75" customHeight="1">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
@@ -7039,7 +7141,7 @@
       <c r="Y187" s="3"/>
       <c r="Z187" s="3"/>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="1:26" ht="15.75" customHeight="1">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
@@ -7067,7 +7169,7 @@
       <c r="Y188" s="3"/>
       <c r="Z188" s="3"/>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="1:26" ht="15.75" customHeight="1">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
@@ -7095,7 +7197,7 @@
       <c r="Y189" s="3"/>
       <c r="Z189" s="3"/>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" spans="1:26" ht="15.75" customHeight="1">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
@@ -7123,7 +7225,7 @@
       <c r="Y190" s="3"/>
       <c r="Z190" s="3"/>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" spans="1:26" ht="15.75" customHeight="1">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
@@ -7151,7 +7253,7 @@
       <c r="Y191" s="3"/>
       <c r="Z191" s="3"/>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" spans="1:26" ht="15.75" customHeight="1">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
@@ -7179,7 +7281,7 @@
       <c r="Y192" s="3"/>
       <c r="Z192" s="3"/>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" spans="1:26" ht="15.75" customHeight="1">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
@@ -7207,7 +7309,7 @@
       <c r="Y193" s="3"/>
       <c r="Z193" s="3"/>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" spans="1:26" ht="15.75" customHeight="1">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
@@ -7235,7 +7337,7 @@
       <c r="Y194" s="3"/>
       <c r="Z194" s="3"/>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" spans="1:26" ht="15.75" customHeight="1">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
@@ -7263,7 +7365,7 @@
       <c r="Y195" s="3"/>
       <c r="Z195" s="3"/>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" spans="1:26" ht="15.75" customHeight="1">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
@@ -7291,7 +7393,7 @@
       <c r="Y196" s="3"/>
       <c r="Z196" s="3"/>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" spans="1:26" ht="15.75" customHeight="1">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
@@ -7319,7 +7421,7 @@
       <c r="Y197" s="3"/>
       <c r="Z197" s="3"/>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" spans="1:26" ht="15.75" customHeight="1">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
@@ -7347,7 +7449,7 @@
       <c r="Y198" s="3"/>
       <c r="Z198" s="3"/>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" spans="1:26" ht="15.75" customHeight="1">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
@@ -7375,7 +7477,7 @@
       <c r="Y199" s="3"/>
       <c r="Z199" s="3"/>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" spans="1:26" ht="15.75" customHeight="1">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -7403,7 +7505,7 @@
       <c r="Y200" s="3"/>
       <c r="Z200" s="3"/>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" spans="1:26" ht="15.75" customHeight="1">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
@@ -7431,7 +7533,7 @@
       <c r="Y201" s="3"/>
       <c r="Z201" s="3"/>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" spans="1:26" ht="15.75" customHeight="1">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
@@ -7459,7 +7561,7 @@
       <c r="Y202" s="3"/>
       <c r="Z202" s="3"/>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="1:26" ht="15.75" customHeight="1">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
@@ -7487,7 +7589,7 @@
       <c r="Y203" s="3"/>
       <c r="Z203" s="3"/>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" spans="1:26" ht="15.75" customHeight="1">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
@@ -7515,7 +7617,7 @@
       <c r="Y204" s="3"/>
       <c r="Z204" s="3"/>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" spans="1:26" ht="15.75" customHeight="1">
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
@@ -7543,7 +7645,7 @@
       <c r="Y205" s="3"/>
       <c r="Z205" s="3"/>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" spans="1:26" ht="15.75" customHeight="1">
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
@@ -7571,7 +7673,7 @@
       <c r="Y206" s="3"/>
       <c r="Z206" s="3"/>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" spans="1:26" ht="15.75" customHeight="1">
       <c r="A207" s="3"/>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
@@ -7599,7 +7701,7 @@
       <c r="Y207" s="3"/>
       <c r="Z207" s="3"/>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" spans="1:26" ht="15.75" customHeight="1">
       <c r="A208" s="3"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
@@ -7627,7 +7729,7 @@
       <c r="Y208" s="3"/>
       <c r="Z208" s="3"/>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" spans="1:26" ht="15.75" customHeight="1">
       <c r="A209" s="3"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
@@ -7655,7 +7757,7 @@
       <c r="Y209" s="3"/>
       <c r="Z209" s="3"/>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" spans="1:26" ht="15.75" customHeight="1">
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
@@ -7683,7 +7785,7 @@
       <c r="Y210" s="3"/>
       <c r="Z210" s="3"/>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" spans="1:26" ht="15.75" customHeight="1">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
@@ -7711,7 +7813,7 @@
       <c r="Y211" s="3"/>
       <c r="Z211" s="3"/>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
+    <row r="212" spans="1:26" ht="15.75" customHeight="1">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
@@ -7739,7 +7841,7 @@
       <c r="Y212" s="3"/>
       <c r="Z212" s="3"/>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
+    <row r="213" spans="1:26" ht="15.75" customHeight="1">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
@@ -7767,7 +7869,7 @@
       <c r="Y213" s="3"/>
       <c r="Z213" s="3"/>
     </row>
-    <row r="214" ht="15.75" customHeight="1">
+    <row r="214" spans="1:26" ht="15.75" customHeight="1">
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
@@ -7795,7 +7897,7 @@
       <c r="Y214" s="3"/>
       <c r="Z214" s="3"/>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
+    <row r="215" spans="1:26" ht="15.75" customHeight="1">
       <c r="A215" s="3"/>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
@@ -7823,7 +7925,7 @@
       <c r="Y215" s="3"/>
       <c r="Z215" s="3"/>
     </row>
-    <row r="216" ht="15.75" customHeight="1">
+    <row r="216" spans="1:26" ht="15.75" customHeight="1">
       <c r="A216" s="3"/>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
@@ -7851,7 +7953,7 @@
       <c r="Y216" s="3"/>
       <c r="Z216" s="3"/>
     </row>
-    <row r="217" ht="15.75" customHeight="1">
+    <row r="217" spans="1:26" ht="15.75" customHeight="1">
       <c r="A217" s="3"/>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
@@ -7879,7 +7981,7 @@
       <c r="Y217" s="3"/>
       <c r="Z217" s="3"/>
     </row>
-    <row r="218" ht="15.75" customHeight="1">
+    <row r="218" spans="1:26" ht="15.75" customHeight="1">
       <c r="A218" s="3"/>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
@@ -7907,7 +8009,7 @@
       <c r="Y218" s="3"/>
       <c r="Z218" s="3"/>
     </row>
-    <row r="219" ht="15.75" customHeight="1">
+    <row r="219" spans="1:26" ht="15.75" customHeight="1">
       <c r="A219" s="3"/>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
@@ -7935,7 +8037,7 @@
       <c r="Y219" s="3"/>
       <c r="Z219" s="3"/>
     </row>
-    <row r="220" ht="15.75" customHeight="1">
+    <row r="220" spans="1:26" ht="15.75" customHeight="1">
       <c r="A220" s="3"/>
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
@@ -7963,10 +8065,10 @@
       <c r="Y220" s="3"/>
       <c r="Z220" s="3"/>
     </row>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="221" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="222" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="223" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="224" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="225" ht="15.75" customHeight="1"/>
     <row r="226" ht="15.75" customHeight="1"/>
     <row r="227" ht="15.75" customHeight="1"/>
@@ -8744,26 +8846,27 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="182" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="39.63"/>
-    <col customWidth="1" min="2" max="2" width="38.88"/>
-    <col customWidth="1" min="3" max="6" width="12.63"/>
+    <col min="1" max="1" width="39.6640625" customWidth="1"/>
+    <col min="2" max="2" width="38.83203125" customWidth="1"/>
+    <col min="3" max="6" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>17</v>
       </c>
@@ -8771,7 +8874,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>19</v>
       </c>
@@ -8779,7 +8882,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>20</v>
       </c>
@@ -8787,7 +8890,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>21</v>
       </c>
@@ -8795,7 +8898,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>22</v>
       </c>
@@ -8803,7 +8906,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>23</v>
       </c>
@@ -8811,7 +8914,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>24</v>
       </c>
@@ -8819,7 +8922,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:2" ht="15.75" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>25</v>
       </c>
@@ -8827,7 +8930,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:2" ht="15.75" customHeight="1">
       <c r="A9" s="6" t="s">
         <v>26</v>
       </c>
@@ -8835,7 +8938,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:2" ht="15.75" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>28</v>
       </c>
@@ -8843,7 +8946,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:2" ht="15.75" customHeight="1">
       <c r="A11" s="6" t="s">
         <v>29</v>
       </c>
@@ -8851,7 +8954,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:2" ht="15.75" customHeight="1">
       <c r="A12" s="6" t="s">
         <v>30</v>
       </c>
@@ -8859,7 +8962,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:2" ht="15.75" customHeight="1">
       <c r="A13" s="6" t="s">
         <v>31</v>
       </c>
@@ -8867,7 +8970,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:2" ht="15.75" customHeight="1">
       <c r="A14" s="6" t="s">
         <v>28</v>
       </c>
@@ -8875,7 +8978,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:2" ht="15.75" customHeight="1">
       <c r="A15" s="6" t="s">
         <v>33</v>
       </c>
@@ -8883,7 +8986,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:2" ht="15.75" customHeight="1">
       <c r="A16" s="6" t="s">
         <v>28</v>
       </c>
@@ -8891,7 +8994,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:2" ht="15.75" customHeight="1">
       <c r="A17" s="6" t="s">
         <v>29</v>
       </c>
@@ -8899,7 +9002,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:2" ht="15.75" customHeight="1">
       <c r="A18" s="6" t="s">
         <v>35</v>
       </c>
@@ -8907,7 +9010,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:2" ht="15.75" customHeight="1">
       <c r="A19" s="7" t="s">
         <v>37</v>
       </c>
@@ -8915,7 +9018,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:2" ht="15.75" customHeight="1">
       <c r="A20" s="6" t="s">
         <v>28</v>
       </c>
@@ -8923,7 +9026,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:2" ht="15.75" customHeight="1">
       <c r="A21" s="6" t="s">
         <v>39</v>
       </c>
@@ -8931,7 +9034,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:2" ht="15.75" customHeight="1">
       <c r="A22" s="6" t="s">
         <v>13</v>
       </c>
@@ -8939,7 +9042,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:2" ht="15.75" customHeight="1">
       <c r="A23" s="6" t="s">
         <v>14</v>
       </c>
@@ -8947,7 +9050,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:2" ht="15.75" customHeight="1">
       <c r="A24" s="6" t="s">
         <v>42</v>
       </c>
@@ -8955,7 +9058,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:2" ht="15.75" customHeight="1">
       <c r="A25" s="6" t="s">
         <v>43</v>
       </c>
@@ -8963,13 +9066,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:2" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -9939,31 +10042,34 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="18.88"/>
-    <col customWidth="1" min="2" max="2" width="37.0"/>
-    <col customWidth="1" min="3" max="3" width="38.0"/>
-    <col customWidth="1" min="4" max="4" width="27.0"/>
-    <col customWidth="1" min="5" max="5" width="27.25"/>
-    <col customWidth="1" min="6" max="6" width="27.0"/>
-    <col customWidth="1" min="7" max="7" width="5.75"/>
-    <col customWidth="1" min="8" max="8" width="26.25"/>
+    <col min="1" max="1" width="18.83203125" customWidth="1"/>
+    <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27" customWidth="1"/>
+    <col min="5" max="5" width="27.1640625" customWidth="1"/>
+    <col min="6" max="6" width="27" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" customWidth="1"/>
+    <col min="8" max="8" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9985,7 +10091,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -9997,12 +10103,12 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:8" ht="90">
       <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="11" t="s">
         <v>48</v>
       </c>
       <c r="D3" s="10"/>
@@ -10013,17 +10119,19 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="15" t="s">
         <v>50</v>
       </c>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
       <c r="G4" s="10"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -10034,7 +10142,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -10046,7 +10154,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -10058,17 +10166,19 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="15" t="s">
         <v>50</v>
       </c>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -10080,7 +10190,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -10092,7 +10202,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -10104,7 +10214,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -10116,7 +10226,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -10128,7 +10238,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:8" ht="15.75" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -10140,7 +10250,7 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:8" ht="15.75" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -10152,7 +10262,7 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -10164,7 +10274,7 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -10176,17 +10286,19 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="15" t="s">
         <v>50</v>
       </c>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -10198,7 +10310,7 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -10210,7 +10322,7 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -10222,7 +10334,7 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -10234,7 +10346,7 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -10246,7 +10358,7 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -10258,17 +10370,19 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="15" t="s">
         <v>50</v>
       </c>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -10280,7 +10394,7 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -10292,7 +10406,7 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:8" ht="15.75" customHeight="1">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -10304,17 +10418,19 @@
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="15" t="s">
         <v>50</v>
       </c>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:8" ht="15.75" customHeight="1">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -10326,7 +10442,7 @@
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:8" ht="15.75" customHeight="1">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -10338,7 +10454,7 @@
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1">
       <c r="D32" s="3"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10" t="s">
@@ -11321,27 +11437,29 @@
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="D29:F29"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="14" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="39.63"/>
-    <col customWidth="1" min="2" max="2" width="38.88"/>
-    <col customWidth="1" min="3" max="3" width="38.5"/>
-    <col customWidth="1" min="4" max="6" width="12.63"/>
+    <col min="1" max="1" width="39.6640625" customWidth="1"/>
+    <col min="2" max="2" width="38.83203125" customWidth="1"/>
+    <col min="3" max="3" width="38.5" customWidth="1"/>
+    <col min="4" max="6" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>17</v>
       </c>
@@ -11352,7 +11470,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>19</v>
       </c>
@@ -11363,7 +11481,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>20</v>
       </c>
@@ -11374,7 +11492,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>21</v>
       </c>
@@ -11385,7 +11503,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>22</v>
       </c>
@@ -11396,7 +11514,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>23</v>
       </c>
@@ -11407,7 +11525,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>24</v>
       </c>
@@ -11418,7 +11536,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>25</v>
       </c>
@@ -11429,7 +11547,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1">
       <c r="A9" s="6" t="s">
         <v>61</v>
       </c>
@@ -11440,7 +11558,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>28</v>
       </c>
@@ -11451,7 +11569,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1">
       <c r="A11" s="6" t="s">
         <v>64</v>
       </c>
@@ -11462,7 +11580,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:3" ht="15.75" customHeight="1">
       <c r="A12" s="6" t="s">
         <v>30</v>
       </c>
@@ -11473,7 +11591,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:3" ht="15.75" customHeight="1">
       <c r="A13" s="6" t="s">
         <v>65</v>
       </c>
@@ -11484,7 +11602,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:3" ht="15.75" customHeight="1">
       <c r="A14" s="6" t="s">
         <v>28</v>
       </c>
@@ -11495,7 +11613,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:3" ht="15.75" customHeight="1">
       <c r="A15" s="6" t="s">
         <v>68</v>
       </c>
@@ -11506,7 +11624,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:3" ht="15.75" customHeight="1">
       <c r="A16" s="6" t="s">
         <v>28</v>
       </c>
@@ -11517,7 +11635,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:3" ht="15.75" customHeight="1">
       <c r="A17" s="6" t="s">
         <v>71</v>
       </c>
@@ -11528,7 +11646,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:3" ht="15.75" customHeight="1">
       <c r="A18" s="6" t="s">
         <v>28</v>
       </c>
@@ -11539,7 +11657,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:3" ht="15.75" customHeight="1">
       <c r="A19" s="6" t="s">
         <v>64</v>
       </c>
@@ -11550,7 +11668,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:3" ht="15.75" customHeight="1">
       <c r="A20" s="6" t="s">
         <v>74</v>
       </c>
@@ -11561,7 +11679,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:3" ht="15.75" customHeight="1">
       <c r="A21" s="7" t="s">
         <v>77</v>
       </c>
@@ -11572,7 +11690,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:3" ht="15.75" customHeight="1">
       <c r="A22" s="6" t="s">
         <v>28</v>
       </c>
@@ -11583,7 +11701,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:3" ht="15.75" customHeight="1">
       <c r="A23" s="6" t="s">
         <v>39</v>
       </c>
@@ -11594,7 +11712,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:3" ht="15.75" customHeight="1">
       <c r="A24" s="6" t="s">
         <v>13</v>
       </c>
@@ -11605,7 +11723,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:3" ht="15.75" customHeight="1">
       <c r="A25" s="6" t="s">
         <v>14</v>
       </c>
@@ -11616,7 +11734,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:3" ht="15.75" customHeight="1">
       <c r="A26" s="6" t="s">
         <v>80</v>
       </c>
@@ -11627,7 +11745,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:3" ht="15.75" customHeight="1">
       <c r="A27" s="6" t="s">
         <v>81</v>
       </c>
@@ -11638,7 +11756,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:3" ht="15.75" customHeight="1">
       <c r="A28" s="6" t="s">
         <v>82</v>
       </c>
@@ -11649,7 +11767,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:3" ht="15.75" customHeight="1">
       <c r="A29" s="6" t="s">
         <v>83</v>
       </c>
@@ -11660,9 +11778,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -12632,34 +12750,35 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3.0" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B5" sqref="B5" pane="bottomLeft"/>
+      <pane ySplit="3" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="18.88"/>
-    <col customWidth="1" min="2" max="2" width="44.13"/>
-    <col customWidth="1" min="3" max="3" width="38.0"/>
-    <col customWidth="1" min="4" max="4" width="27.0"/>
-    <col customWidth="1" min="5" max="5" width="27.25"/>
-    <col customWidth="1" min="6" max="6" width="27.0"/>
-    <col customWidth="1" min="7" max="7" width="28.75"/>
-    <col customWidth="1" min="8" max="8" width="26.25"/>
+    <col min="1" max="1" width="18.83203125" customWidth="1"/>
+    <col min="2" max="2" width="62" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27" customWidth="1"/>
+    <col min="5" max="5" width="27.1640625" customWidth="1"/>
+    <col min="6" max="6" width="27" customWidth="1"/>
+    <col min="7" max="7" width="28.6640625" customWidth="1"/>
+    <col min="8" max="8" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12683,7 +12802,7 @@
       </c>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -12695,12 +12814,12 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:8" ht="90">
       <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="11" t="s">
         <v>48</v>
       </c>
       <c r="D3" s="10"/>
@@ -12711,16 +12830,19 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="15" t="s">
         <v>50</v>
       </c>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -12731,7 +12853,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -12743,7 +12865,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -12755,16 +12877,19 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="15" t="s">
         <v>50</v>
       </c>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -12776,7 +12901,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -12788,7 +12913,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -12800,7 +12925,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -12812,7 +12937,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -12824,7 +12949,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:8" ht="15.75" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -12836,7 +12961,7 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:8" ht="15.75" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -12848,7 +12973,7 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -12860,7 +12985,7 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -12872,16 +12997,19 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="15" t="s">
         <v>50</v>
       </c>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -12893,7 +13021,7 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -12905,7 +13033,7 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -12917,7 +13045,7 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -12929,7 +13057,7 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -12941,7 +13069,7 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -12953,16 +13081,19 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="17" t="s">
         <v>50</v>
       </c>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -12974,7 +13105,7 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -12986,7 +13117,7 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:8" ht="15.75" customHeight="1">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -12998,17 +13129,19 @@
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="15" t="s">
         <v>50</v>
       </c>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:8" ht="15.75" customHeight="1">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -13020,7 +13153,7 @@
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:8" ht="15.75" customHeight="1">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -13032,33 +13165,39 @@
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1">
       <c r="D32" s="3"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="13" t="s">
+    <row r="33" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A33" s="18" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="14"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
       <c r="D34" s="3" t="s">
         <v>87</v>
       </c>
       <c r="E34" s="3"/>
-      <c r="F34" s="15"/>
+      <c r="F34" s="13"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="14"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
+    <row r="35" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3" t="s">
         <v>88</v>
@@ -13066,10 +13205,10 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="14"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
+    <row r="36" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3" t="s">
@@ -13077,39 +13216,42 @@
       </c>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="14"/>
-      <c r="B37" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="C37" s="14"/>
+    <row r="37" spans="1:7" ht="45">
+      <c r="A37" s="12"/>
+      <c r="B37" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="C37" s="12"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="14"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="10" t="s">
+    <row r="38" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A38" s="12"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="15" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="14"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+    </row>
+    <row r="39" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
       <c r="D39" s="10" t="s">
         <v>7</v>
       </c>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="14"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
+    <row r="40" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A40" s="12"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
       <c r="D40" s="10"/>
       <c r="E40" s="10" t="s">
         <v>51</v>
@@ -13117,10 +13259,10 @@
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="14"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
+    <row r="41" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A41" s="12"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10" t="s">
@@ -13128,319 +13270,337 @@
       </c>
       <c r="G41" s="10"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="14"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
+    <row r="42" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A42" s="12"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
       <c r="G42" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A43" s="12"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+    </row>
+    <row r="44" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A44" s="12"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A45" s="12"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A46" s="12"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A47" s="12"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A48" s="12"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="14"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="10" t="s">
+      <c r="G48" s="12"/>
+    </row>
+    <row r="49" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A49" s="12"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+    </row>
+    <row r="50" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A50" s="12"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+    </row>
+    <row r="51" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A51" s="12"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="15" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="14"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14" t="s">
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
+    </row>
+    <row r="52" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A52" s="12"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="14"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="14"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="14"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="14"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14" t="s">
+    <row r="53" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A53" s="12"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G53" s="12"/>
+    </row>
+    <row r="54" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A54" s="12"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+    </row>
+    <row r="55" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A55" s="12"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+    </row>
+    <row r="56" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A56" s="12"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A57" s="12"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="G57" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="G48" s="14"/>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="14"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-    </row>
-    <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="14"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
-    </row>
-    <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="14"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="10" t="s">
+    </row>
+    <row r="58" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A58" s="12"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="G58" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A59" s="12"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="15" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="14"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="14"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G53" s="14"/>
-    </row>
-    <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="14"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-    </row>
-    <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="14"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-    </row>
-    <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="14"/>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14" t="s">
+      <c r="E59" s="16"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+    </row>
+    <row r="60" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A60" s="12"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
+      <c r="F60" s="12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="14"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="G57" s="14" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="14"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="G58" s="14" t="s">
+      <c r="G60" s="12"/>
+    </row>
+    <row r="61" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A61" s="12"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="12"/>
+      <c r="F61" s="12" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="14"/>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="10" t="s">
+      <c r="G61" s="12"/>
+    </row>
+    <row r="62" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A62" s="12"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="G62" s="12"/>
+    </row>
+    <row r="63" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A63" s="12"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="15" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="14"/>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="F60" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G60" s="14"/>
-    </row>
-    <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="14"/>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="F61" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="G61" s="14"/>
-    </row>
-    <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="14"/>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="G62" s="14"/>
-    </row>
-    <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="14"/>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="14"/>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16"/>
+    </row>
+    <row r="64" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A64" s="12"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="12"/>
       <c r="D64" s="10"/>
-      <c r="E64" s="14" t="s">
+      <c r="E64" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F64" s="10"/>
       <c r="G64" s="10"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="14"/>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
+    <row r="65" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A65" s="12"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="12"/>
       <c r="D65" s="10"/>
-      <c r="E65" s="14" t="s">
-        <v>97</v>
+      <c r="E65" s="12" t="s">
+        <v>96</v>
       </c>
       <c r="F65" s="10"/>
       <c r="G65" s="10"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="14"/>
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
+    <row r="66" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A66" s="12"/>
+      <c r="B66" s="12"/>
+      <c r="C66" s="12"/>
       <c r="D66" s="10"/>
-      <c r="E66" s="14" t="s">
-        <v>98</v>
+      <c r="E66" s="12" t="s">
+        <v>97</v>
       </c>
       <c r="F66" s="10"/>
       <c r="G66" s="10"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="14"/>
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="10" t="s">
+    <row r="67" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A67" s="12"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="15" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="14"/>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14" t="s">
+      <c r="E67" s="16"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="16"/>
+    </row>
+    <row r="68" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A68" s="12"/>
+      <c r="B68" s="12"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E68" s="10"/>
       <c r="F68" s="10"/>
       <c r="G68" s="10"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="14"/>
-      <c r="B69" s="14"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14" t="s">
-        <v>99</v>
+    <row r="69" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A69" s="12"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12" t="s">
+        <v>98</v>
       </c>
       <c r="E69" s="10"/>
       <c r="F69" s="10"/>
       <c r="G69" s="10"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="14"/>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14" t="s">
-        <v>100</v>
+    <row r="70" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A70" s="12"/>
+      <c r="B70" s="12"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12" t="s">
+        <v>99</v>
       </c>
       <c r="E70" s="10"/>
       <c r="F70" s="10"/>
       <c r="G70" s="10"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="14"/>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="10" t="s">
+    <row r="71" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A71" s="12"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="15" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="16"/>
+      <c r="G71" s="16"/>
+    </row>
+    <row r="72" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="73" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="74" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="75" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="76" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="77" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="78" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="79" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="80" spans="1:7" ht="15.75" customHeight="1"/>
     <row r="81" ht="15.75" customHeight="1"/>
     <row r="82" ht="15.75" customHeight="1"/>
     <row r="83" ht="15.75" customHeight="1"/>
@@ -14363,11 +14523,6 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="D59:G59"/>
-    <mergeCell ref="D63:G63"/>
-    <mergeCell ref="D67:G67"/>
     <mergeCell ref="D71:G71"/>
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="D8:G8"/>
@@ -14376,32 +14531,38 @@
     <mergeCell ref="D29:F29"/>
     <mergeCell ref="A33:G33"/>
     <mergeCell ref="D38:G38"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="D59:G59"/>
+    <mergeCell ref="D63:G63"/>
+    <mergeCell ref="D67:G67"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="39.63"/>
-    <col customWidth="1" min="2" max="2" width="38.88"/>
-    <col customWidth="1" min="3" max="3" width="38.5"/>
-    <col customWidth="1" min="4" max="4" width="31.13"/>
-    <col customWidth="1" min="5" max="6" width="12.63"/>
+    <col min="1" max="1" width="39.6640625" customWidth="1"/>
+    <col min="2" max="2" width="38.83203125" customWidth="1"/>
+    <col min="3" max="3" width="38.5" customWidth="1"/>
+    <col min="4" max="4" width="31.1640625" customWidth="1"/>
+    <col min="5" max="6" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>17</v>
       </c>
@@ -14412,10 +14573,10 @@
         <v>60</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" ht="15.75" customHeight="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>19</v>
       </c>
@@ -14426,7 +14587,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>20</v>
       </c>
@@ -14437,7 +14598,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>21</v>
       </c>
@@ -14448,7 +14609,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>22</v>
       </c>
@@ -14459,7 +14620,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>23</v>
       </c>
@@ -14470,7 +14631,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>24</v>
       </c>
@@ -14481,7 +14642,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>25</v>
       </c>
@@ -14492,18 +14653,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1">
       <c r="A9" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>28</v>
       </c>
@@ -14514,7 +14675,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1">
       <c r="A11" s="6" t="s">
         <v>64</v>
       </c>
@@ -14525,7 +14686,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:4" ht="15.75" customHeight="1">
       <c r="A12" s="6" t="s">
         <v>30</v>
       </c>
@@ -14536,18 +14697,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:4" ht="15.75" customHeight="1">
       <c r="A13" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="C13" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
+    </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1">
       <c r="A14" s="6" t="s">
         <v>28</v>
       </c>
@@ -14558,18 +14719,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:4" ht="15.75" customHeight="1">
       <c r="A15" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="C15" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
+    </row>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1">
       <c r="A16" s="6" t="s">
         <v>28</v>
       </c>
@@ -14580,18 +14741,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="A17" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="C17" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
+    </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" s="6" t="s">
         <v>28</v>
       </c>
@@ -14602,7 +14763,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="A19" s="6" t="s">
         <v>64</v>
       </c>
@@ -14613,7 +14774,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="A20" s="6" t="s">
         <v>74</v>
       </c>
@@ -14624,18 +14785,18 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="A21" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="C21" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1">
       <c r="A22" s="6" t="s">
         <v>28</v>
       </c>
@@ -14646,7 +14807,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1">
       <c r="A23" s="6" t="s">
         <v>39</v>
       </c>
@@ -14657,7 +14818,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1">
       <c r="A24" s="6" t="s">
         <v>13</v>
       </c>
@@ -14668,7 +14829,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1">
       <c r="A25" s="6" t="s">
         <v>14</v>
       </c>
@@ -14679,7 +14840,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1">
       <c r="A26" s="6" t="s">
         <v>80</v>
       </c>
@@ -14690,7 +14851,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:7" ht="15.75" customHeight="1">
       <c r="A27" s="6" t="s">
         <v>81</v>
       </c>
@@ -14701,7 +14862,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1">
       <c r="A28" s="6" t="s">
         <v>82</v>
       </c>
@@ -14712,7 +14873,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:7" ht="15.75" customHeight="1">
       <c r="A29" s="6" t="s">
         <v>83</v>
       </c>
@@ -14723,29 +14884,32 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="13" t="s">
+    <row r="30" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A30" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A31" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="6" t="s">
+      <c r="B31" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="C31" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="D31" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D31" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
+    </row>
+    <row r="32" spans="1:7" ht="15.75" customHeight="1">
       <c r="A32" s="6" t="s">
         <v>28</v>
       </c>
@@ -14759,21 +14923,21 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:4" ht="15.75" customHeight="1">
       <c r="A33" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="C33" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="D33" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="D33" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
+    </row>
+    <row r="34" spans="1:4" ht="15.75" customHeight="1">
       <c r="A34" s="6" t="s">
         <v>28</v>
       </c>
@@ -14787,49 +14951,49 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:4" ht="15.75" customHeight="1">
       <c r="A35" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D35" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D35" s="6" t="s">
+    </row>
+    <row r="36" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A36" s="6" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="6" t="s">
+      <c r="B36" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="C36" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>129</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:4" ht="15.75" customHeight="1">
       <c r="A37" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B37" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="C37" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="D37" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="D37" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
+    </row>
+    <row r="38" spans="1:4" ht="15.75" customHeight="1">
       <c r="A38" s="6" t="s">
         <v>28</v>
       </c>
@@ -14843,7 +15007,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:4" ht="15.75" customHeight="1">
       <c r="A39" s="6" t="s">
         <v>39</v>
       </c>
@@ -14854,10 +15018,10 @@
         <v>39</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" customHeight="1">
       <c r="A40" s="6" t="s">
         <v>80</v>
       </c>
@@ -14871,7 +15035,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:4" ht="15.75" customHeight="1">
       <c r="A41" s="6" t="s">
         <v>81</v>
       </c>
@@ -14882,10 +15046,10 @@
         <v>41</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.75" customHeight="1">
       <c r="A42" s="6" t="s">
         <v>82</v>
       </c>
@@ -14899,7 +15063,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:4" ht="15.75" customHeight="1">
       <c r="A43" s="6" t="s">
         <v>83</v>
       </c>
@@ -14910,279 +15074,279 @@
         <v>81</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" customHeight="1">
       <c r="A44" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D44" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B44" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="D44" s="6" t="s">
+    </row>
+    <row r="45" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A45" s="6" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="6" t="s">
+      <c r="B45" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D45" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="B45" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="D45" s="7" t="s">
+    </row>
+    <row r="46" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A46" s="6" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="6" t="s">
-        <v>140</v>
-      </c>
       <c r="B46" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="C46" s="18" t="s">
-        <v>95</v>
+        <v>139</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:4" ht="15.75" customHeight="1">
       <c r="A47" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C47" s="18" t="s">
-        <v>96</v>
+        <v>140</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>95</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:4" ht="15.75" customHeight="1">
       <c r="A48" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A49" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="B48" s="18" t="s">
+      <c r="B49" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C49" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D48" s="18" t="s">
+      <c r="D49" s="7" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="6" t="s">
+    <row r="50" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A50" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="B49" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="C49" s="6" t="s">
+      <c r="C50" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="D49" s="18" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="18" t="s">
+      <c r="D50" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A51" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B51" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C51" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="D50" s="6" t="s">
+      <c r="D51" s="6" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:4" ht="15.75" customHeight="1">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
       <c r="D52" s="6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15.75" customHeight="1">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="6" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="18"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="6" t="s">
+    <row r="55" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="6" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="18"/>
-      <c r="B55" s="18"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="6" t="s">
+    <row r="56" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A56" s="7"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="6" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="18"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="18"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="18"/>
+    <row r="57" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A57" s="7"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
       <c r="D57" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="18"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="18"/>
+    <row r="58" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A58" s="7"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
       <c r="D58" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="18"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="18"/>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A59" s="7"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
       <c r="D59" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="18"/>
-      <c r="B60" s="18"/>
-      <c r="C60" s="18"/>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A60" s="7"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
       <c r="D60" s="7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="18"/>
-      <c r="B61" s="18"/>
-      <c r="C61" s="18"/>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A61" s="7"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
       <c r="D61" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="18"/>
-      <c r="B62" s="18"/>
-      <c r="C62" s="18"/>
+    <row r="62" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A62" s="7"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
       <c r="D62" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="18"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="18"/>
+    <row r="63" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A63" s="7"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
       <c r="D63" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A64" s="7"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="6" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="18"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="18"/>
-      <c r="D64" s="6" t="s">
+    <row r="65" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A65" s="7"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="6" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="18"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="18"/>
-      <c r="D65" s="6" t="s">
+    <row r="66" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A66" s="7"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="6" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="18"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="6" t="s">
+    <row r="67" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A67" s="7"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="6" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="18"/>
-      <c r="B67" s="18"/>
-      <c r="C67" s="18"/>
-      <c r="D67" s="6" t="s">
+    <row r="68" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A68" s="7"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="6" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="18"/>
-      <c r="B68" s="18"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="18"/>
-      <c r="B69" s="18"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="18"/>
-    </row>
-    <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="18"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="18"/>
-      <c r="D70" s="18"/>
-    </row>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="69" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A69" s="7"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+    </row>
+    <row r="70" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A70" s="7"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+    </row>
+    <row r="71" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="72" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="73" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="74" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="75" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="76" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="77" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="78" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="79" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="80" spans="1:4" ht="15.75" customHeight="1"/>
     <row r="81" ht="15.75" customHeight="1"/>
     <row r="82" ht="15.75" customHeight="1"/>
     <row r="83" ht="15.75" customHeight="1"/>
@@ -16107,6 +16271,6 @@
   <mergeCells count="1">
     <mergeCell ref="A30:D30"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>